--- a/biology/Botanique/Corallina/Corallina.xlsx
+++ b/biology/Botanique/Corallina/Corallina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coralinna est un genre (biologie) d’algues rouges de la famille des Corallinaceae. 
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (1 juin 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (1 juin 2013) :
 Corallina aberrans (Yendo) K.Hind &amp; G.W.Saunders
 Corallina abundans Lemoine (Sans vérification)
 Corallina acetabula (Linnaeus) Cavanilles (Sans vérification)
@@ -611,7 +625,7 @@
 Corallina typica Ishijima (Sans vérification)
 Corallina vancouveriensis Yendo
 Corallina vermicula Nelson &amp; Duncan (Sans vérification)
-Selon ITIS      (1 juin 2013)[2] :
+Selon ITIS      (1 juin 2013) :
 Corallina bathybentha
 Corallina cubensis
 Corallina elegans
@@ -623,7 +637,7 @@
 Corallina pinnatifolia
 Corallina polysticha
 Corallina vancouveriensis
-Selon NCBI  (1 juin 2013)[3] :
+Selon NCBI  (1 juin 2013) :
 Corallina caespitosa
 Corallina elongata
 Corallina frondescens
@@ -633,7 +647,7 @@
 Corallina pilulifera
 Corallina pinnatifolia
 Corallina vancouveriensis
-Selon Paleobiology Database                   (1 juin 2013)[4] :
+Selon Paleobiology Database                   (1 juin 2013) :
 Corallina grandis
 Corallina hayasaki
 Corallina marshallensis
